--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2672975.144124095</v>
+        <v>2671087.562607694</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -662,13 +662,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>142.9046269258102</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>346.6999128968763</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -817,16 +817,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>145.8215431037986</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>50.43151777216858</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>178.0038256906875</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>98.0920354687541</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>73.31370764131945</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.5968436493441</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>47.6559068475036</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>35.12287234938887</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>123.6064608052458</v>
+        <v>129.0246247964037</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784698</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,19 +1528,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>94.16481274941243</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1579,19 +1579,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>207.3959936968198</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>39.11561436815728</v>
       </c>
       <c r="T16" t="n">
-        <v>182.2746758082084</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2053,10 +2053,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>139.1537278750033</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>26.97444673954876</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2293,19 +2293,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151914</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>118.2422920270589</v>
       </c>
     </row>
     <row r="23">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2527,13 +2527,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>139.1537278750031</v>
+        <v>163.9563538534661</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896904</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>96.84207451769308</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533804</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700709</v>
       </c>
       <c r="D31" t="n">
-        <v>45.90744097187632</v>
+        <v>93.41221638965547</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801209</v>
+        <v>91.23070601801228</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897904</v>
+        <v>93.71057173897924</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2159888357149</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523571</v>
+        <v>54.76109577523591</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550464</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298324</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700205</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.9343866952711</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.3197417080341</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>170.5063987604803</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>111.876523215811</v>
       </c>
     </row>
     <row r="32">
@@ -3044,10 +3044,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373703</v>
       </c>
       <c r="H34" t="n">
         <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463133</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
         <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1893.689751284806</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1893.689751284806</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
         <v>952.5674858910851</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1893.689751284806</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1893.689751284806</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1893.689751284806</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>1893.689751284806</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,22 +4410,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.0636002298166</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>348.1274173019098</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600564</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600564</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600564</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600564</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1138.210253911481</v>
+        <v>1659.880644283887</v>
       </c>
       <c r="C5" t="n">
-        <v>1138.210253911481</v>
+        <v>1290.918127343475</v>
       </c>
       <c r="D5" t="n">
-        <v>779.9445553047301</v>
+        <v>1290.918127343475</v>
       </c>
       <c r="E5" t="n">
-        <v>394.1563027064859</v>
+        <v>905.1298747452308</v>
       </c>
       <c r="F5" t="n">
-        <v>387.2108019572824</v>
+        <v>898.1843739960274</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>480.2205658942142</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>153.0258459302171</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W5" t="n">
-        <v>1528.349585887292</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X5" t="n">
-        <v>1528.349585887292</v>
+        <v>2050.019976259699</v>
       </c>
       <c r="Y5" t="n">
-        <v>1138.210253911481</v>
+        <v>1659.880644283887</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4668,7 +4668,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>654.0747340636873</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>654.0747340636873</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>506.1616404812942</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1584.314837422907</v>
+        <v>983.0286321745432</v>
       </c>
       <c r="C8" t="n">
-        <v>1584.314837422907</v>
+        <v>614.0661152341315</v>
       </c>
       <c r="D8" t="n">
-        <v>1226.049138816157</v>
+        <v>614.0661152341315</v>
       </c>
       <c r="E8" t="n">
-        <v>840.2608862179122</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="F8" t="n">
-        <v>429.2749814283047</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4817,7 +4817,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2430.46526502512</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2430.46526502512</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>2099.402377681549</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748109</v>
+        <v>1746.633722411435</v>
       </c>
       <c r="X8" t="n">
-        <v>1970.914677487029</v>
+        <v>1373.167964150355</v>
       </c>
       <c r="Y8" t="n">
-        <v>1970.914677487029</v>
+        <v>983.0286321745432</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4872,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4884,16 +4884,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036446</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>438.9553738610025</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064343</v>
+        <v>184.2708856551156</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064343</v>
+        <v>184.2708856551156</v>
       </c>
       <c r="X10" t="n">
-        <v>603.2739732920446</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>382.4813941485145</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5036,34 +5036,34 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5072,19 +5072,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1336.046207783208</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>434.3285960683721</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="C13" t="n">
-        <v>265.3924131404652</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="D13" t="n">
-        <v>265.3924131404652</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,7 +5203,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471192</v>
@@ -5227,22 +5227,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>978.4302543112195</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>978.4302543112195</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>723.7457661053327</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W13" t="n">
-        <v>434.3285960683721</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="X13" t="n">
-        <v>434.3285960683721</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="Y13" t="n">
-        <v>434.3285960683721</v>
+        <v>192.3330639344398</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5276,10 +5276,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.683698656582</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1433.546326320615</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O15" t="n">
-        <v>2103.010087623274</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>732.6596981028219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5443,7 +5443,7 @@
         <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5461,25 +5461,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1348.33044553573</v>
       </c>
       <c r="T16" t="n">
-        <v>1203.725332970022</v>
+        <v>1124.545030325236</v>
       </c>
       <c r="U16" t="n">
-        <v>1203.725332970022</v>
+        <v>835.4163915387942</v>
       </c>
       <c r="V16" t="n">
-        <v>1203.725332970022</v>
+        <v>835.4163915387942</v>
       </c>
       <c r="W16" t="n">
-        <v>914.3081629330617</v>
+        <v>545.9992215018335</v>
       </c>
       <c r="X16" t="n">
-        <v>914.3081629330617</v>
+        <v>318.009670603816</v>
       </c>
       <c r="Y16" t="n">
-        <v>914.3081629330617</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5525,7 +5525,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5540,25 +5540,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>378.1030765138943</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>624.8682044203583</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>932.1883377003199</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
         <v>97.21709146028584</v>
@@ -5680,7 +5680,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5701,22 +5701,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5750,13 +5750,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5768,7 +5768,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>303.4575213834695</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>550.2226492899335</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>857.5427825698952</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C22" t="n">
         <v>97.21709146028584</v>
@@ -5908,16 +5908,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>385.5899330013835</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>385.5899330013835</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="23">
@@ -5978,34 +5978,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6069,22 +6069,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1024.771599890052</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6148,16 +6148,16 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471187</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
         <v>1283.483062980063</v>
@@ -6175,22 +6175,22 @@
         <v>1298.996260473454</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1133.38378183359</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>1133.38378183359</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>1133.38378183359</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>843.9666117966292</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>615.9770608986119</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="26">
@@ -6203,40 +6203,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6248,7 +6248,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>195.0373687508849</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
         <v>507.4972331799364</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952639</v>
+        <v>933.236668829393</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>643.8194987924323</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>415.829947894415</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>195.0373687508849</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6482,10 +6482,10 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,25 +6537,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1427.741252113633</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P30" t="n">
         <v>2317.834075963124</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>611.7611155708653</v>
+        <v>491.5575547094959</v>
       </c>
       <c r="C31" t="n">
-        <v>498.5857979243291</v>
+        <v>378.3822370629596</v>
       </c>
       <c r="D31" t="n">
-        <v>452.2146454274844</v>
+        <v>284.0264629319945</v>
       </c>
       <c r="E31" t="n">
-        <v>360.062417126462</v>
+        <v>191.874234630972</v>
       </c>
       <c r="F31" t="n">
-        <v>360.062417126462</v>
+        <v>191.874234630972</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276535</v>
+        <v>191.874234630972</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.251007986467</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667505</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962053</v>
+        <v>997.6688721962048</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056073</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.811824899269</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1736.652680096192</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167071</v>
+        <v>1568.628130167068</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661999</v>
+        <v>1335.260356661997</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1136.336733737481</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818936</v>
+        <v>902.6804289818906</v>
       </c>
       <c r="X31" t="n">
-        <v>902.6804289818936</v>
+        <v>730.4517433652438</v>
       </c>
       <c r="Y31" t="n">
-        <v>737.6487151197342</v>
+        <v>617.4451542583651</v>
       </c>
     </row>
     <row r="32">
@@ -6677,31 +6677,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,34 +6710,34 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
         <v>3205.060556590537</v>
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766204</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1894.594339433115</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2174.134404651812</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2379.156885434021</v>
       </c>
       <c r="Q33" t="n">
         <v>2612.943493278838</v>
@@ -6832,61 +6832,61 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229665</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504505</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525396</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254953</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649688</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350128</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
         <v>1489.892037025262</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,7 +6926,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6935,19 +6935,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7002,13 +7002,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
@@ -7017,25 +7017,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1333.825180851559</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1663.687808515591</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229678</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506731</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083211</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504519</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103136</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
@@ -7114,16 +7114,16 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U37" t="n">
         <v>1489.892037025263</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010323</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="38">
@@ -7163,28 +7163,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7196,7 +7196,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7239,40 +7239,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2013.406634128705</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2292.946699347402</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2497.969180129612</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="41">
@@ -7403,25 +7403,25 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7433,7 +7433,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7476,40 +7476,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>841.8631140141292</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108322</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103136</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045198</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010308</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7625,49 +7625,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7713,13 +7713,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7728,22 +7728,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211722</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>966.693239001134</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1771.104817265285</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q45" t="n">
         <v>2612.943493278838</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103126</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525398</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719079</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8541,10 +8541,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783517</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8775,22 +8775,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>165.9802687929762</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,28 +9006,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>94.13752431970607</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>230.7151863772039</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>91.23759968302122</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9252,19 +9252,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>15.83804904622849</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,19 +9489,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,10 +9717,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>369.0893880493733</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,13 +9729,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,28 +9954,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>50.62661940943656</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10191,22 +10191,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>76.43196988338565</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10434,7 +10434,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,10 +10443,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>148.1350559470641</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10589,7 +10589,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504486</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,10 +10665,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>392.1113620226433</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504486</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>38.86002301949807</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,19 +11148,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>360.5026862907248</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504486</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,16 +11385,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>272.8719470256798</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23416,19 +23416,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>52.26914989715674</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23467,19 +23467,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>14.15156736156941</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23701,13 +23701,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>158.805195615446</v>
       </c>
       <c r="T16" t="n">
-        <v>39.27288525018082</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23941,10 +23941,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>82.39383318338594</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>259.2629056590286</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,19 +24181,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338592</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>100.3423613250359</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24415,13 +24415,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>82.39383318338615</v>
+        <v>57.59120720492314</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>70.40474658093476</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338569</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>47.50477541777895</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437416</v>
+        <v>90.21779139437436</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348207</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.2159888357151</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>51.50487350772691</v>
       </c>
     </row>
     <row r="32">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>796315.9954062812</v>
+        <v>796315.9954062813</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>796315.9954062812</v>
+        <v>796315.9954062811</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>827902.1506214037</v>
+        <v>827902.1506214036</v>
       </c>
     </row>
     <row r="12">
@@ -26314,37 +26314,37 @@
         <v>615781.3273982126</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="D2" t="n">
+        <v>615781.3273982129</v>
+      </c>
+      <c r="E2" t="n">
+        <v>586543.5896065631</v>
+      </c>
+      <c r="F2" t="n">
+        <v>586543.5896065632</v>
+      </c>
+      <c r="G2" t="n">
+        <v>586543.589606563</v>
+      </c>
+      <c r="H2" t="n">
+        <v>586543.5896065631</v>
+      </c>
+      <c r="I2" t="n">
+        <v>586543.5896065627</v>
+      </c>
+      <c r="J2" t="n">
+        <v>586543.5896065629</v>
+      </c>
+      <c r="K2" t="n">
+        <v>610233.2060179043</v>
+      </c>
+      <c r="L2" t="n">
         <v>615781.3273982127</v>
       </c>
-      <c r="E2" t="n">
-        <v>586543.5896065629</v>
-      </c>
-      <c r="F2" t="n">
-        <v>586543.5896065627</v>
-      </c>
-      <c r="G2" t="n">
-        <v>586543.5896065629</v>
-      </c>
-      <c r="H2" t="n">
-        <v>586543.5896065626</v>
-      </c>
-      <c r="I2" t="n">
-        <v>586543.5896065626</v>
-      </c>
-      <c r="J2" t="n">
-        <v>586543.5896065627</v>
-      </c>
-      <c r="K2" t="n">
-        <v>610233.2060179049</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>615781.3273982125</v>
-      </c>
-      <c r="M2" t="n">
-        <v>615781.3273982124</v>
       </c>
       <c r="N2" t="n">
         <v>615781.3273982125</v>
@@ -26353,7 +26353,7 @@
         <v>615781.3273982125</v>
       </c>
       <c r="P2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982126</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284567</v>
+        <v>44162.60530284551</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086684</v>
+        <v>10342.90680086718</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284569</v>
+        <v>44162.60530284549</v>
       </c>
     </row>
     <row r="4">
@@ -26424,13 +26424,13 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143906</v>
       </c>
       <c r="F4" t="n">
         <v>15045.66962143911</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143912</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
         <v>15045.6696214391</v>
@@ -26439,25 +26439,25 @@
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143914</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563564</v>
+        <v>33210.29213563558</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275954</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.4568627596</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.45686275958</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="O4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="P4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275956</v>
       </c>
     </row>
     <row r="5">
@@ -26473,40 +26473,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-213820.588130964</v>
+        <v>-213820.5881309639</v>
       </c>
       <c r="C6" t="n">
-        <v>376147.2910835806</v>
+        <v>376147.2910835803</v>
       </c>
       <c r="D6" t="n">
-        <v>376147.2910835806</v>
+        <v>376147.2910835808</v>
       </c>
       <c r="E6" t="n">
-        <v>-45649.44244048889</v>
+        <v>-45746.90156646079</v>
       </c>
       <c r="F6" t="n">
-        <v>479510.5940364071</v>
+        <v>479413.1349104354</v>
       </c>
       <c r="G6" t="n">
-        <v>479510.5940364072</v>
+        <v>479413.1349104351</v>
       </c>
       <c r="H6" t="n">
-        <v>479510.594036407</v>
+        <v>479413.1349104352</v>
       </c>
       <c r="I6" t="n">
-        <v>479510.594036407</v>
+        <v>479413.1349104349</v>
       </c>
       <c r="J6" t="n">
-        <v>303087.3748438139</v>
+        <v>302989.9157178421</v>
       </c>
       <c r="K6" t="n">
-        <v>436232.1000492008</v>
+        <v>436213.6063112661</v>
       </c>
       <c r="L6" t="n">
-        <v>470258.8579145608</v>
+        <v>470258.8579145606</v>
       </c>
       <c r="M6" t="n">
-        <v>345800.7494815902</v>
+        <v>345800.7494815905</v>
       </c>
       <c r="N6" t="n">
-        <v>480601.7647154275</v>
+        <v>480601.7647154276</v>
       </c>
       <c r="O6" t="n">
-        <v>480601.7647154275</v>
+        <v>480601.7647154276</v>
       </c>
       <c r="P6" t="n">
-        <v>436439.1594125819</v>
+        <v>436439.1594125822</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="3">
@@ -26735,25 +26735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26765,19 +26765,19 @@
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108355</v>
+        <v>12.92863350108378</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855686</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855689</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,13 +27382,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>211.7784146948728</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27537,16 +27537,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>2.793929914413752</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>235.8503564698092</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27616,10 +27616,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>235.7803443301075</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>53.83928077610715</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,28 +27774,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>93.93311345730838</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>22.54869530067481</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,13 +27831,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>366.1282631732914</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>181.3254480082689</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,19 +28065,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>102.1031945837913</v>
+        <v>96.6850305926335</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-4.170133494355862e-13</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.041087216435699e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855689</v>
       </c>
     </row>
     <row r="32">
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,43 +31519,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33585,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33822,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34059,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624591</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35495,22 +35495,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>499.1748421909892</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>427.332097717719</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>437.8086013087286</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>241.8130382709604</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>166.4134876341677</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36437,10 +36437,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>618.3470930053976</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504662</v>
@@ -36449,13 +36449,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>361.0509964599028</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K29" t="n">
         <v>528.689756130333</v>
@@ -36911,22 +36911,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>358.7956721244938</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.7110267941226</v>
+        <v>67.7110267941224</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584674</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084854</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075294</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341605</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.4406081491597</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403576</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043183</v>
+        <v>94.42895660043163</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>236.1480887321383</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109055</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>674.4750642637515</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,28 +37543,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109055</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>126.8730558045722</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>693.6972596887377</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109055</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>555.2356492667881</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,7 +38187,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414414</v>
